--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rab47fdf1a41f4998"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R8e9b53cda0a24f33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rfb8e11982f9c4607"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rfb769387c62a4219"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e263bc7a8024ab2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R612cf138c3cd4da0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87193d8e63a74ca6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b5dc86d04d34f52"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rfb8e11982f9c4607"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rfb769387c62a4219"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6785d7c5cb2d4898"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R74ba252b60cd47af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R612cf138c3cd4da0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0f6717c11de4799"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b5dc86d04d34f52"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb61635719da04404"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6785d7c5cb2d4898"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R74ba252b60cd47af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R9c608613ae8c4f2e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R777169ec5db14787"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0f6717c11de4799"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbcf2cbba4ab64113"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb61635719da04404"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R179af6a00b004fc9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R9c608613ae8c4f2e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R777169ec5db14787"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8b9fdf2858d843aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5700394cbb9448a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbcf2cbba4ab64113"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd56345f5dc2e4eb1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R179af6a00b004fc9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99a50953525d4458"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8b9fdf2858d843aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5700394cbb9448a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rfa6420e0863d4f1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R6c2020dfb6b14c79"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd56345f5dc2e4eb1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25f64fccb49c4663"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99a50953525d4458"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R257b0001b7e2425a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rfa6420e0863d4f1c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R6c2020dfb6b14c79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re46d1d3b05ba4f85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R740a9a06a0e24d6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25f64fccb49c4663"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40a1cb48e2134e24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R257b0001b7e2425a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d153ed1579542e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re46d1d3b05ba4f85"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R740a9a06a0e24d6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R02467f0ca95e4c43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R584faecebf854467"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40a1cb48e2134e24"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd76d8b3bba864b5d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d153ed1579542e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1353abc011dd4c74"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R02467f0ca95e4c43"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R584faecebf854467"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8529631539764198"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R4db0d8eb5f5e4780"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd76d8b3bba864b5d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R81996d04c694466d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1353abc011dd4c74"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R61dab3aa17614a31"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8529631539764198"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R4db0d8eb5f5e4780"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0ed19781281b496a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R49f951b124c4461c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R81996d04c694466d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16c70ec951234538"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R61dab3aa17614a31"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2560de0778804254"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0ed19781281b496a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R49f951b124c4461c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0e19e684d08b4d42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra614df4c0d4c4f82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16c70ec951234538"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4cea577f90b4075"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2560de0778804254"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd98f85447f6e45fa"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0e19e684d08b4d42"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra614df4c0d4c4f82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rd45faf0f147143d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R2180a2fdcc57447e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4cea577f90b4075"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raf27d8dbf8cf4f7b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd98f85447f6e45fa"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R94c635a229fb4c48"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rd45faf0f147143d9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R2180a2fdcc57447e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R619acfcf3b7c432f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R804a8d8156cd4413"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raf27d8dbf8cf4f7b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e42d9bdf2094fad"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R94c635a229fb4c48"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R555c3a6743f24fb0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/069_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R619acfcf3b7c432f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R804a8d8156cd4413"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0850fca0ac7540ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R601e2789597a41c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e42d9bdf2094fad"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R557208a2ffd24ce4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3192,6 +3192,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R555c3a6743f24fb0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R88fbdda25b0042d3"/>
 </x:worksheet>
 </file>